--- a/结果/1_2_第一题第二问规律探究-高钾玻璃.xlsx
+++ b/结果/1_2_第一题第二问规律探究-高钾玻璃.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,157 +434,164 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>二氧化硅(SiO2)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>氧化钠(Na2O)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>氧化钾(K2O)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>氧化钙(CaO)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>氧化镁(MgO)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>氧化铝(Al2O3)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>氧化铁(Fe2O3)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>氧化铜(CuO)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>氧化铅(PbO)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>氧化钡(BaO)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>五氧化二磷(P2O5)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>氧化锶(SrO)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>氧化锡(SnO2)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>二氧化硫(SO2)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>均值</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>76.64</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.46</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>6.4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3.85</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.78</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5.06</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1.38</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2.16</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.27</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.4</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1.03</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.03</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.13</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>中位数</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>73</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>7.52</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>3.36</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.65</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4.78</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.46</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1.92</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.68</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -592,136 +599,154 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>标准差</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>14.47</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>1.09</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>5.31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3.31</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.71</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3.08</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1.57</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1.49</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.51</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.84</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1.28</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.04</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>偏度</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.21</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2.13</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.04</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.19</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.29</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.48</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1.63</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.51</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.97</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>2.11</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2.15</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1.23</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>4.24</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>2.03</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>峰度</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-1.82</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>3.14</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-1.71</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-1.78</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-1.4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.63</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3.37</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.64</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>2.72</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3.77</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>4.13</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>18</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>2.51</v>
       </c>
     </row>
